--- a/final-project-Excel.xlsx
+++ b/final-project-Excel.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohamedhocinbendjabeur/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA29E03-8647-EA41-97C2-DFD9D1815122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAA7A64-1A90-5D4A-B95A-E68EE99F2E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="500" windowWidth="32700" windowHeight="20500" activeTab="4" xr2:uid="{06457496-8C9D-1148-9EB7-59FFBCB35BCC}"/>
+    <workbookView xWindow="900" yWindow="500" windowWidth="32700" windowHeight="20500" xr2:uid="{06457496-8C9D-1148-9EB7-59FFBCB35BCC}"/>
   </bookViews>
   <sheets>
-    <sheet name="qst 1" sheetId="6" r:id="rId1"/>
-    <sheet name="tabl1 1" sheetId="7" r:id="rId2"/>
-    <sheet name="table 2" sheetId="9" r:id="rId3"/>
-    <sheet name="table 3" sheetId="10" r:id="rId4"/>
-    <sheet name="qst 3" sheetId="15" r:id="rId5"/>
-    <sheet name="qst 4" sheetId="12" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId1"/>
+    <sheet name="qst 1" sheetId="6" r:id="rId2"/>
+    <sheet name="tabl1 1" sheetId="7" r:id="rId3"/>
+    <sheet name="table 2" sheetId="9" r:id="rId4"/>
+    <sheet name="table 3" sheetId="10" r:id="rId5"/>
+    <sheet name="qst 3" sheetId="15" r:id="rId6"/>
+    <sheet name="qst 4" sheetId="12" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="26" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="42">
   <si>
     <t>Arts</t>
   </si>
@@ -158,6 +159,18 @@
   <si>
     <t>Graphe number 2 :</t>
   </si>
+  <si>
+    <t xml:space="preserve">FINAL PROJECT : EXCEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROFESSOR : REDOUAN BOUCHKIR </t>
+  </si>
+  <si>
+    <t>INFO ING SECTION A GRP 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENDJABEUR MOHAMED HOCINE </t>
+  </si>
 </sst>
 </file>
 
@@ -166,7 +179,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-[$DZD]\ * #,##0.00_-;\-[$DZD]\ * #,##0.00_-;_-[$DZD]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -193,8 +206,34 @@
       <name val="Book Antiqua"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,8 +270,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -281,11 +326,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -338,6 +463,114 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2697,7 +2930,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F3C768C2-11EF-1347-92AB-60C4B48FC376}" name="PivotTable7" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F3C768C2-11EF-1347-92AB-60C4B48FC376}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" showAll="0">
@@ -2805,7 +3038,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F0FE5B2-2006-B341-9516-1DE9E42A4964}" name="PivotTable9" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F0FE5B2-2006-B341-9516-1DE9E42A4964}" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" showAll="0"/>
@@ -2884,7 +3117,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EAE122F8-DC5C-0846-972D-1820D8801C90}" name="PivotTable10" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EAE122F8-DC5C-0846-972D-1820D8801C90}" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" showAll="0"/>
@@ -3278,6 +3511,200 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2218FEC-E697-8D44-8CA8-6E85B37919FF}">
+  <dimension ref="D1:L15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D1" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="27"/>
+    </row>
+    <row r="2" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="30"/>
+    </row>
+    <row r="3" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D3" s="31"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="33"/>
+    </row>
+    <row r="4" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D4" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="36"/>
+    </row>
+    <row r="5" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D5" s="37"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="39"/>
+    </row>
+    <row r="6" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D6" s="37"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="39"/>
+    </row>
+    <row r="7" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D7" s="37"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="39"/>
+    </row>
+    <row r="8" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D8" s="40"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="42"/>
+    </row>
+    <row r="9" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D9" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="45"/>
+    </row>
+    <row r="10" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="48"/>
+    </row>
+    <row r="11" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D11" s="46"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="48"/>
+    </row>
+    <row r="12" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D12" s="49"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="51"/>
+    </row>
+    <row r="13" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D13" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="54"/>
+    </row>
+    <row r="14" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="57"/>
+    </row>
+    <row r="15" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="60"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D1:L3"/>
+    <mergeCell ref="D4:L8"/>
+    <mergeCell ref="D9:L12"/>
+    <mergeCell ref="D13:L15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D084263-C824-E843-80BF-4C936BF2BF7E}">
   <dimension ref="A1:C42"/>
   <sheetViews>
@@ -3753,7 +4180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972A3E1C-6EEA-9642-B6C6-AE99E595DCEC}">
   <dimension ref="A3:C9"/>
   <sheetViews>
@@ -3851,7 +4278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16916B0E-DB0D-E345-AF90-386FB68AAFC9}">
   <dimension ref="A3:C12"/>
   <sheetViews>
@@ -3981,7 +4408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AFD964-0452-7346-B302-E013F88814F2}">
   <dimension ref="A3:G13"/>
   <sheetViews>
@@ -4242,11 +4669,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA3191E-97A7-A24E-98BE-3743A1A95054}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+    <sheetView zoomScale="106" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -4695,7 +5122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5585ADDD-8ACB-204F-ABB3-2160303F9B2A}">
   <dimension ref="B1:H24"/>
   <sheetViews>
